--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.742348</v>
+        <v>0.04312</v>
       </c>
       <c r="H2">
-        <v>8.227043999999999</v>
+        <v>0.12936</v>
       </c>
       <c r="I2">
-        <v>0.8112951562181048</v>
+        <v>0.06332032271043876</v>
       </c>
       <c r="J2">
-        <v>0.8112951562181048</v>
+        <v>0.06332032271043876</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.98493066666667</v>
+        <v>0.4724393333333333</v>
       </c>
       <c r="N2">
-        <v>62.954792</v>
+        <v>1.417318</v>
       </c>
       <c r="O2">
-        <v>0.6651705782252746</v>
+        <v>0.04281008045734225</v>
       </c>
       <c r="P2">
-        <v>0.6651705782252746</v>
+        <v>0.04281008045734226</v>
       </c>
       <c r="Q2">
-        <v>57.547982643872</v>
+        <v>0.02037158405333333</v>
       </c>
       <c r="R2">
-        <v>517.931843794848</v>
+        <v>0.18334425648</v>
       </c>
       <c r="S2">
-        <v>0.5396496681729612</v>
+        <v>0.002710748109818759</v>
       </c>
       <c r="T2">
-        <v>0.5396496681729612</v>
+        <v>0.00271074810981876</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.742348</v>
+        <v>0.04312</v>
       </c>
       <c r="H3">
-        <v>8.227043999999999</v>
+        <v>0.12936</v>
       </c>
       <c r="I3">
-        <v>0.8112951562181048</v>
+        <v>0.06332032271043876</v>
       </c>
       <c r="J3">
-        <v>0.8112951562181048</v>
+        <v>0.06332032271043876</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.864265</v>
       </c>
       <c r="O3">
-        <v>0.231014436399387</v>
+        <v>0.6604099741840944</v>
       </c>
       <c r="P3">
-        <v>0.231014436399387</v>
+        <v>0.6604099741840945</v>
       </c>
       <c r="Q3">
-        <v>19.98647446474</v>
+        <v>0.3142623689333333</v>
       </c>
       <c r="R3">
-        <v>179.87827018266</v>
+        <v>2.8283613204</v>
       </c>
       <c r="S3">
-        <v>0.1874208932672781</v>
+        <v>0.04181737268652939</v>
       </c>
       <c r="T3">
-        <v>0.1874208932672781</v>
+        <v>0.04181737268652939</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.742348</v>
+        <v>0.04312</v>
       </c>
       <c r="H4">
-        <v>8.227043999999999</v>
+        <v>0.12936</v>
       </c>
       <c r="I4">
-        <v>0.8112951562181048</v>
+        <v>0.06332032271043876</v>
       </c>
       <c r="J4">
-        <v>0.8112951562181048</v>
+        <v>0.06332032271043876</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>9.825526</v>
       </c>
       <c r="O4">
-        <v>0.1038149853753384</v>
+        <v>0.2967799453585633</v>
       </c>
       <c r="P4">
-        <v>0.1038149853753384</v>
+        <v>0.2967799453585634</v>
       </c>
       <c r="Q4">
-        <v>8.981670525016</v>
+        <v>0.1412255603733333</v>
       </c>
       <c r="R4">
-        <v>80.835034725144</v>
+        <v>1.27103004336</v>
       </c>
       <c r="S4">
-        <v>0.08422459477786541</v>
+        <v>0.01879220191409061</v>
       </c>
       <c r="T4">
-        <v>0.08422459477786541</v>
+        <v>0.01879220191409062</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.180913</v>
       </c>
       <c r="I5">
-        <v>0.1164536128425946</v>
+        <v>0.5780441577995699</v>
       </c>
       <c r="J5">
-        <v>0.1164536128425946</v>
+        <v>0.5780441577995699</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.98493066666667</v>
+        <v>0.4724393333333333</v>
       </c>
       <c r="N5">
-        <v>62.954792</v>
+        <v>1.417318</v>
       </c>
       <c r="O5">
-        <v>0.6651705782252746</v>
+        <v>0.04281008045734225</v>
       </c>
       <c r="P5">
-        <v>0.6651705782252746</v>
+        <v>0.04281008045734226</v>
       </c>
       <c r="Q5">
-        <v>8.260459142788443</v>
+        <v>0.1859699168148888</v>
       </c>
       <c r="R5">
-        <v>74.34413228509599</v>
+        <v>1.673729251334</v>
       </c>
       <c r="S5">
-        <v>0.0774615169909309</v>
+        <v>0.02474611690329623</v>
       </c>
       <c r="T5">
-        <v>0.0774615169909309</v>
+        <v>0.02474611690329623</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.180913</v>
       </c>
       <c r="I6">
-        <v>0.1164536128425946</v>
+        <v>0.5780441577995699</v>
       </c>
       <c r="J6">
-        <v>0.1164536128425946</v>
+        <v>0.5780441577995699</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.864265</v>
       </c>
       <c r="O6">
-        <v>0.231014436399387</v>
+        <v>0.6604099741840944</v>
       </c>
       <c r="P6">
-        <v>0.231014436399387</v>
+        <v>0.6604099741840945</v>
       </c>
       <c r="Q6">
         <v>2.868866085993889</v>
@@ -818,10 +818,10 @@
         <v>25.819794773945</v>
       </c>
       <c r="S6">
-        <v>0.0269024657375044</v>
+        <v>0.3817461273296806</v>
       </c>
       <c r="T6">
-        <v>0.0269024657375044</v>
+        <v>0.3817461273296806</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.180913</v>
       </c>
       <c r="I7">
-        <v>0.1164536128425946</v>
+        <v>0.5780441577995699</v>
       </c>
       <c r="J7">
-        <v>0.1164536128425946</v>
+        <v>0.5780441577995699</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>9.825526</v>
       </c>
       <c r="O7">
-        <v>0.1038149853753384</v>
+        <v>0.2967799453585633</v>
       </c>
       <c r="P7">
-        <v>0.1038149853753384</v>
+        <v>0.2967799453585634</v>
       </c>
       <c r="Q7">
         <v>1.289232376137555</v>
@@ -880,10 +880,10 @@
         <v>11.603091385238</v>
       </c>
       <c r="S7">
-        <v>0.01208963011415927</v>
+        <v>0.1715519135665931</v>
       </c>
       <c r="T7">
-        <v>0.01208963011415927</v>
+        <v>0.1715519135665931</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>0.2442243333333333</v>
       </c>
       <c r="H8">
-        <v>0.732673</v>
+        <v>0.7326729999999999</v>
       </c>
       <c r="I8">
-        <v>0.07225123093930062</v>
+        <v>0.3586355194899915</v>
       </c>
       <c r="J8">
-        <v>0.07225123093930062</v>
+        <v>0.3586355194899914</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.98493066666667</v>
+        <v>0.4724393333333333</v>
       </c>
       <c r="N8">
-        <v>62.954792</v>
+        <v>1.417318</v>
       </c>
       <c r="O8">
-        <v>0.6651705782252746</v>
+        <v>0.04281008045734225</v>
       </c>
       <c r="P8">
-        <v>0.6651705782252746</v>
+        <v>0.04281008045734226</v>
       </c>
       <c r="Q8">
-        <v>5.125030702112889</v>
+        <v>0.1153811812237777</v>
       </c>
       <c r="R8">
-        <v>46.125276319016</v>
+        <v>1.038430631014</v>
       </c>
       <c r="S8">
-        <v>0.04805939306138245</v>
+        <v>0.01535321544422727</v>
       </c>
       <c r="T8">
-        <v>0.04805939306138245</v>
+        <v>0.01535321544422727</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>0.2442243333333333</v>
       </c>
       <c r="H9">
-        <v>0.732673</v>
+        <v>0.7326729999999999</v>
       </c>
       <c r="I9">
-        <v>0.07225123093930062</v>
+        <v>0.3586355194899915</v>
       </c>
       <c r="J9">
-        <v>0.07225123093930062</v>
+        <v>0.3586355194899914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>21.864265</v>
       </c>
       <c r="O9">
-        <v>0.231014436399387</v>
+        <v>0.6604099741840944</v>
       </c>
       <c r="P9">
-        <v>0.231014436399387</v>
+        <v>0.6604099741840945</v>
       </c>
       <c r="Q9">
-        <v>1.779928514482778</v>
+        <v>1.779928514482777</v>
       </c>
       <c r="R9">
         <v>16.019356630345</v>
       </c>
       <c r="S9">
-        <v>0.01669107739460449</v>
+        <v>0.2368464741678845</v>
       </c>
       <c r="T9">
-        <v>0.01669107739460448</v>
+        <v>0.2368464741678845</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>0.2442243333333333</v>
       </c>
       <c r="H10">
-        <v>0.732673</v>
+        <v>0.7326729999999999</v>
       </c>
       <c r="I10">
-        <v>0.07225123093930062</v>
+        <v>0.3586355194899915</v>
       </c>
       <c r="J10">
-        <v>0.07225123093930062</v>
+        <v>0.3586355194899914</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>9.825526</v>
       </c>
       <c r="O10">
-        <v>0.1038149853753384</v>
+        <v>0.2967799453585633</v>
       </c>
       <c r="P10">
-        <v>0.1038149853753384</v>
+        <v>0.2967799453585634</v>
       </c>
       <c r="Q10">
-        <v>0.7998775123331111</v>
+        <v>0.799877512333111</v>
       </c>
       <c r="R10">
-        <v>7.198897610998</v>
+        <v>7.198897610997999</v>
       </c>
       <c r="S10">
-        <v>0.007500760483313691</v>
+        <v>0.1064358298778796</v>
       </c>
       <c r="T10">
-        <v>0.007500760483313689</v>
+        <v>0.1064358298778796</v>
       </c>
     </row>
   </sheetData>
